--- a/biology/Botanique/Moutabea_guianensis/Moutabea_guianensis.xlsx
+++ b/biology/Botanique/Moutabea_guianensis/Moutabea_guianensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Moutabea guianensis est une espèce de plantes à fleurs de la famille des Polygalaceae. C'est un arbuste originaire d'Amérique du Sud. En Guyane, on l'appelle Graine macaque, Moutabé, Moutabou ou Moutabier de la Guyane en Créoles et Aymoutarou en Kali'na.
 </t>
@@ -511,12 +523,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Moutabea guianensis est un arbuste sarmenteux pouvant atteindre une hauteur de 2 mètres. Ses jeunes rameaux sont couverts de poils fins peu visibles. 
 Ses feuilles sont simples, alternes, entières, coriaces, glabres, à nervure principale très côtelée en dessous. Le pétiole est long de 3 à 7 mm. Le limbe ovale, aigu ou obtus-émarginé à son extrémité,·mesure 4 à 10 cm de long pour 1,5 à 4 de large. 
 Il produit de courtes grappes axillaires de fleurs hermaphrodites, irrégulières, parumées, mesurant 10 à 12 mm de long. Le calice et la corolle sont unis au tube formé par les étamines. On compte 5 sépales subobtus, ciliolulés, et 5 pétales blanc-jaunâtre, plus ou moins égaux, obtus et glabres. 
-Le fruit est une drupe jaune à 3 loges, contenant une pulpe gélatineuse qui abrite des graines à enveloppe blanche puis rousse, ovoïdes, pointues, latéralement comprimées. La graine (amande) est violette ponctuée de blanc[1].
+Le fruit est une drupe jaune à 3 loges, contenant une pulpe gélatineuse qui abrite des graines à enveloppe blanche puis rousse, ovoïdes, pointues, latéralement comprimées. La graine (amande) est violette ponctuée de blanc.
 </t>
         </is>
       </c>
@@ -545,7 +559,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">On rencontre Moutabea guianensis au nord de l'Amérique du Sud, dans les bassins de l'Amazone et de l'Orénoque : Colombie, Pérou, Venezuela, Guyana, Suriname, Guyane, Brésil.
 </t>
@@ -576,10 +592,12 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On a observé que les fruits de Moutabea guianensis font partie du régime alimentaire du "baboune" (Alouatta macconnelli)[2] et le « kwata » (Ateles paniscus) en Guyane[3], ainsi que du « saki-satan » (Chiropotes satanas) au Suriname[4].
-Trois stéroïdes ont été isolé dans les tiges de Moutabea guianensis : le spinasterol, la spinasterone, le spinasterol glucopyranosyl. Ces sustances lui confèrent des effets allélopathiques[5], et phytotoxiques qui empêchent la germination de graines de plantes considérées comme envahissantes en Amazonie[6].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On a observé que les fruits de Moutabea guianensis font partie du régime alimentaire du "baboune" (Alouatta macconnelli) et le « kwata » (Ateles paniscus) en Guyane, ainsi que du « saki-satan » (Chiropotes satanas) au Suriname.
+Trois stéroïdes ont été isolé dans les tiges de Moutabea guianensis : le spinasterol, la spinasterone, le spinasterol glucopyranosyl. Ces sustances lui confèrent des effets allélopathiques, et phytotoxiques qui empêchent la germination de graines de plantes considérées comme envahissantes en Amazonie.
 </t>
         </is>
       </c>
@@ -608,11 +626,13 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La pulpe des fruits est comestible : douce et fondante, on la consomme crue[1].
-Les racines de Moutabea guianensis contiennent des Xanthones originales[7], qui auraient des propriétés anti-cancéreuses[8].
-Les propriétés hémolythiques et aggrégant plaquettaire de Moutabea guianensis ont été étudiées[9].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La pulpe des fruits est comestible : douce et fondante, on la consomme crue.
+Les racines de Moutabea guianensis contiennent des Xanthones originales, qui auraient des propriétés anti-cancéreuses.
+Les propriétés hémolythiques et aggrégant plaquettaire de Moutabea guianensis ont été étudiées.
 </t>
         </is>
       </c>
@@ -641,9 +661,11 @@
           <t>Histoire naturelle</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>En 1775, le botaniste Aublet rapporte ceci[10] : 
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>En 1775, le botaniste Aublet rapporte ceci : 
 « LE MOUTABIÉ de la GUIANE 
 La racine de cet arbrisseau pouſſe pluſieurs tiges ſarmenteuſes, rameuſes, de cinq à ſix pieds de longueur &amp; plus. Par l'aſſemblage de ces tiges &amp; rameaux il forme des buiſſons plus ou moins épais. Ces rameaux ſont garnis de feuilles alternes, preſque ſeſſiles, liſſes, vertes, entières, fermés, ovales, terminées par une pointe. Les plus grandes ont quatre pouces de longueur, ſur un pouce &amp; demi de largeur. 
 Les fleurs naiſſent par petits bouquets à l'aiſſelle des feuilles. 
